--- a/Bin_data/Turkish/Turkish12.xlsx
+++ b/Bin_data/Turkish/Turkish12.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD34"/>
+  <dimension ref="A1:BD35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6160,6 +6160,176 @@
         <v>0</v>
       </c>
     </row>
+    <row r="35" spans="1:56">
+      <c r="A35" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>0</v>
+      </c>
+      <c r="AO35">
+        <v>0</v>
+      </c>
+      <c r="AP35">
+        <v>0</v>
+      </c>
+      <c r="AQ35">
+        <v>0</v>
+      </c>
+      <c r="AR35">
+        <v>0</v>
+      </c>
+      <c r="AS35">
+        <v>0</v>
+      </c>
+      <c r="AT35">
+        <v>0</v>
+      </c>
+      <c r="AU35">
+        <v>0</v>
+      </c>
+      <c r="AV35">
+        <v>0</v>
+      </c>
+      <c r="AW35">
+        <v>0</v>
+      </c>
+      <c r="AX35">
+        <v>0</v>
+      </c>
+      <c r="AY35">
+        <v>0</v>
+      </c>
+      <c r="AZ35">
+        <v>0</v>
+      </c>
+      <c r="BA35">
+        <v>0</v>
+      </c>
+      <c r="BB35">
+        <v>0</v>
+      </c>
+      <c r="BC35">
+        <v>0</v>
+      </c>
+      <c r="BD35">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bin_data/Turkish/Turkish12.xlsx
+++ b/Bin_data/Turkish/Turkish12.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD34"/>
+  <dimension ref="A1:BD35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6149,6 +6149,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="35" spans="1:56">
+      <c r="A35" s="1">
+        <v>1.02</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
